--- a/biology/Zoologie/Carabus_variolosus/Carabus_variolosus.xlsx
+++ b/biology/Zoologie/Carabus_variolosus/Carabus_variolosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabe noduleux
 Carabus variolosus, le Carabe noduleux, est une espèce d’insectes coléoptères dont le mode de vie est semi-aquatique. Il mesure environ 30 mm, est de couleur noire et ses élytres sont décorés de nodules caractéristiques qui lui valent son nom vernaculaire.
@@ -512,9 +524,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux taxons ont été proposés comme sous espèces : C. variolosus variolosus et C. variolosus nodulosus. Pour certains auteurs, il s’agit de deux taxons différents[1], en France le référentiel taxonomique TaxRef v.14 considère Carabus nodulosus comme une espèce valide.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux taxons ont été proposés comme sous espèces : C. variolosus variolosus et C. variolosus nodulosus. Pour certains auteurs, il s’agit de deux taxons différents, en France le référentiel taxonomique TaxRef v.14 considère Carabus nodulosus comme une espèce valide.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce carabe vit entre 370 et 650 m d’altitude dans des zones boisées comportant de très petits cours d’eau pérennes ou des zones marécageuses[2]. Il hiverne plusieurs mois dans le bois mort dans l’eau (chablis, troncs en décomposition, souche…), les adultes sortent au printemps et ont une durée de vie qui peut atteindre trois ans. La larve comme l’adulte sont des prédateurs semi-aquatiques : gammares, sangsues, larves de trichoptères… Ils peuvent aussi consommer des invertébrés terrestres ou des fruits.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce carabe vit entre 370 et 650 m d’altitude dans des zones boisées comportant de très petits cours d’eau pérennes ou des zones marécageuses. Il hiverne plusieurs mois dans le bois mort dans l’eau (chablis, troncs en décomposition, souche…), les adultes sortent au printemps et ont une durée de vie qui peut atteindre trois ans. La larve comme l’adulte sont des prédateurs semi-aquatiques : gammares, sangsues, larves de trichoptères… Ils peuvent aussi consommer des invertébrés terrestres ou des fruits.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ayant une écologie originale, ses populations sont très difficiles à détecter. Elle a tout de même été observée en Bulgarie, République tchèque, Moldavie, Pologne, Roumanie, Slovaquie, Ukraine, Slovénie, Croatie, Serbie, Monténégro, Bosnie-Herzégovine, Allemagne[3] et Macédoine du Nord [4]. Carabus (variolosus) nodulosus se trouve en France, et si elle semble avoir disparu du Massif Central et du Morvan, elle est encore dans le massif Vosgien et Rhône-Alpes, et des stations ont été découvertes en 2019.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ayant une écologie originale, ses populations sont très difficiles à détecter. Elle a tout de même été observée en Bulgarie, République tchèque, Moldavie, Pologne, Roumanie, Slovaquie, Ukraine, Slovénie, Croatie, Serbie, Monténégro, Bosnie-Herzégovine, Allemagne et Macédoine du Nord . Carabus (variolosus) nodulosus se trouve en France, et si elle semble avoir disparu du Massif Central et du Morvan, elle est encore dans le massif Vosgien et Rhône-Alpes, et des stations ont été découvertes en 2019.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Statuts de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est inscrit aux annexes II et IV de la Directive Habitats-Faune-Flore, les États membres de l’UE doivent alors protéger ses populations notamment par la désignation de sites Natura 2000.
 </t>
